--- a/raw/1940election.xlsx
+++ b/raw/1940election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2386F7-EE6A-9A4B-8277-92530ECD64AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CB389A-2092-D84B-B73A-EBE411A229F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="17020" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6895" uniqueCount="2237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6894" uniqueCount="2237">
   <si>
     <t>State</t>
   </si>
@@ -7242,7 +7242,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -7549,8 +7549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1158" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H1169" sqref="H1169"/>
+    <sheetView tabSelected="1" topLeftCell="B367" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D382" sqref="D382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -16142,8 +16142,8 @@
       <c r="C381" t="s">
         <v>1870</v>
       </c>
-      <c r="D381" t="s">
-        <v>23</v>
+      <c r="D381">
+        <v>6</v>
       </c>
       <c r="E381" t="s">
         <v>541</v>

--- a/raw/1940election.xlsx
+++ b/raw/1940election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CB389A-2092-D84B-B73A-EBE411A229F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA69B33-F3CF-6C46-BA9F-ADCBA9B3DC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="17020" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7549,8 +7549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B367" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D382" sqref="D382"/>
+    <sheetView tabSelected="1" topLeftCell="B185" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -12058,7 +12058,7 @@
         <v>293</v>
       </c>
       <c r="C199" t="s">
-        <v>1827</v>
+        <v>1870</v>
       </c>
       <c r="D199">
         <v>1</v>
